--- a/excel_files/gdp_for_db.xlsx
+++ b/excel_files/gdp_for_db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\django\Project-for-Strategic-agency\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Twix\АСР\SDA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44962D5A-BEDE-4223-9784-2BCAE03E3312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C2B489-A45A-4AA3-AEFA-2F548F25E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,8 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,6 +38,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>economic activity</t>
+  </si>
+  <si>
     <t>Сельское, лесное и рыбное хозяйство</t>
   </si>
   <si>
@@ -154,9 +159,6 @@
   </si>
   <si>
     <t>year_number</t>
-  </si>
-  <si>
-    <t>economic_activity</t>
   </si>
 </sst>
 </file>
@@ -586,15 +588,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,21 +606,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>74778975.5</v>
@@ -627,10 +631,10 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>5960029.1999999993</v>
@@ -641,10 +645,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>34875353.699999996</v>
@@ -655,10 +659,10 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4199760.8000000007</v>
@@ -669,10 +673,10 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>362767.89999999997</v>
@@ -683,10 +687,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>13148026.299999999</v>
@@ -697,10 +701,10 @@
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>17094508.399999999</v>
@@ -711,13 +715,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>1660884.3000000005</v>
+        <v>16693707.300000006</v>
       </c>
       <c r="D9">
         <v>2016</v>
@@ -725,13 +729,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>16693707.300000006</v>
+        <v>1660884.3000000005</v>
       </c>
       <c r="D10">
         <v>2016</v>
@@ -739,10 +743,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>4419299.7000000011</v>
@@ -753,10 +757,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>5577430.0999999996</v>
@@ -767,10 +771,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>18841896.5</v>
@@ -781,10 +785,10 @@
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>1805644.9999999998</v>
@@ -795,10 +799,10 @@
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>3160268.7</v>
@@ -809,10 +813,10 @@
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>8130395.8000000007</v>
@@ -823,10 +827,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>14996639</v>
@@ -837,10 +841,10 @@
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>5862029.0999999996</v>
@@ -851,10 +855,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>517356.5</v>
@@ -865,10 +869,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>3451854.1999999997</v>
@@ -879,10 +883,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>90983861.800000012</v>
@@ -893,10 +897,10 @@
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>10433709.100000001</v>
@@ -907,10 +911,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>43861855.699999988</v>
@@ -921,10 +925,10 @@
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>4772783.4999999981</v>
@@ -935,10 +939,10 @@
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>502042.69999999972</v>
@@ -949,10 +953,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>15228578.799999997</v>
@@ -963,10 +967,10 @@
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>19560617.199999996</v>
@@ -977,13 +981,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>1980001.7000000002</v>
+        <v>19655934</v>
       </c>
       <c r="D28">
         <v>2017</v>
@@ -991,13 +995,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>19655934</v>
+        <v>1980001.7000000002</v>
       </c>
       <c r="D29">
         <v>2017</v>
@@ -1005,10 +1009,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>5649630.9000000004</v>
@@ -1019,10 +1023,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>9230303.4999999981</v>
@@ -1033,10 +1037,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>21929280.999999996</v>
@@ -1047,10 +1051,10 @@
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>2249040.5000000009</v>
@@ -1061,10 +1065,10 @@
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>3864366.6000000006</v>
@@ -1075,10 +1079,10 @@
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>9068972.5</v>
@@ -1089,10 +1093,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>17041482.600000001</v>
@@ -1103,10 +1107,10 @@
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>6308370.8000000007</v>
@@ -1117,10 +1121,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>711314.70000000007</v>
@@ -1131,10 +1135,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>3655444.7</v>
@@ -1145,10 +1149,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>113660726</v>
@@ -1159,10 +1163,10 @@
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>20056981.199999996</v>
@@ -1173,10 +1177,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>68971772.49999997</v>
@@ -1187,10 +1191,10 @@
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>5869885.0999999996</v>
@@ -1201,10 +1205,10 @@
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>905210.2</v>
@@ -1215,10 +1219,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>22101145.799999997</v>
@@ -1229,10 +1233,10 @@
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>24233476.199999996</v>
@@ -1243,13 +1247,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C47">
-        <v>2514431.0000000005</v>
+        <v>23611266.200000003</v>
       </c>
       <c r="D47">
         <v>2018</v>
@@ -1257,13 +1261,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48">
-        <v>23611266.200000003</v>
+        <v>2514431.0000000005</v>
       </c>
       <c r="D48">
         <v>2018</v>
@@ -1271,10 +1275,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>7004723.3000000007</v>
@@ -1285,10 +1289,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>12531928.899999999</v>
@@ -1299,10 +1303,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>26928826.799999997</v>
@@ -1313,10 +1317,10 @@
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>3591401.9</v>
@@ -1327,10 +1331,10 @@
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53">
         <v>5232276.6999999993</v>
@@ -1341,10 +1345,10 @@
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>15069361.6</v>
@@ -1355,10 +1359,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C55">
         <v>21057570.600000001</v>
@@ -1369,10 +1373,10 @@
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>8204467.7000000011</v>
@@ -1383,10 +1387,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57">
         <v>1089246.5</v>
@@ -1397,10 +1401,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C58">
         <v>4493016.7999999989</v>
@@ -1411,10 +1415,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>130306927.60000002</v>
@@ -1425,10 +1429,10 @@
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <v>31337771.399999999</v>
@@ -1439,10 +1443,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <v>94749711.099999964</v>
@@ -1453,10 +1457,10 @@
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62">
         <v>9054951.6999999993</v>
@@ -1467,10 +1471,10 @@
     </row>
     <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C63">
         <v>960702.60000000009</v>
@@ -1481,10 +1485,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64">
         <v>30595443.300000012</v>
@@ -1495,10 +1499,10 @@
     </row>
     <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65">
         <v>29307229.299999997</v>
@@ -1509,13 +1513,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C66">
-        <v>3194524.4000000004</v>
+        <v>29243001.600000005</v>
       </c>
       <c r="D66">
         <v>2019</v>
@@ -1523,13 +1527,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67">
-        <v>29243001.600000005</v>
+        <v>3194524.4000000004</v>
       </c>
       <c r="D67">
         <v>2019</v>
@@ -1537,10 +1541,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>7387398.8000000007</v>
@@ -1551,10 +1555,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C69">
         <v>18648735.199999999</v>
@@ -1565,10 +1569,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>30617538.699999999</v>
@@ -1579,10 +1583,10 @@
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C71">
         <v>5301352.4999999981</v>
@@ -1593,10 +1597,10 @@
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C72">
         <v>6433139.0000000019</v>
@@ -1607,10 +1611,10 @@
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>20081863.299999997</v>
@@ -1621,10 +1625,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C74">
         <v>29811069.300000001</v>
@@ -1635,10 +1639,10 @@
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>12588324.699999999</v>
@@ -1649,10 +1653,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>1607190.4000000004</v>
@@ -1663,10 +1667,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C77">
         <v>5710458.5999999987</v>
@@ -1677,10 +1681,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>151279552.09999999</v>
@@ -1691,10 +1695,10 @@
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79">
         <v>22618593.5</v>
@@ -1705,10 +1709,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>118250653.09999996</v>
@@ -1719,10 +1723,10 @@
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81">
         <v>11220441.9</v>
@@ -1733,10 +1737,10 @@
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C82">
         <v>1098240.8</v>
@@ -1747,10 +1751,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C83">
         <v>37548499.800000012</v>
@@ -1761,10 +1765,10 @@
     </row>
     <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84">
         <v>34459445</v>
@@ -1775,13 +1779,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C85">
-        <v>2881858</v>
+        <v>29757319.900000006</v>
       </c>
       <c r="D85">
         <v>2020</v>
@@ -1789,13 +1793,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>29757319.900000006</v>
+        <v>2881858</v>
       </c>
       <c r="D86">
         <v>2020</v>
@@ -1803,10 +1807,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>9368532.9000000022</v>
@@ -1817,10 +1821,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C88">
         <v>29613525.600000001</v>
@@ -1831,10 +1835,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C89">
         <v>34366665.799999997</v>
@@ -1845,10 +1849,10 @@
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C90">
         <v>6685357.9999999991</v>
@@ -1859,10 +1863,10 @@
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <v>6982603.6000000006</v>
@@ -1873,10 +1877,10 @@
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C92">
         <v>23219963.699999999</v>
@@ -1887,10 +1891,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C93">
         <v>31710504.100000001</v>
@@ -1901,10 +1905,10 @@
     </row>
     <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>17097202.800000001</v>
@@ -1915,10 +1919,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C95">
         <v>1770893.5999999999</v>
@@ -1929,10 +1933,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C96">
         <v>5364025.8000000007</v>
@@ -1943,10 +1947,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>183518493.39999998</v>
@@ -1957,10 +1961,10 @@
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C98">
         <v>28868875.799999997</v>
@@ -1971,10 +1975,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99">
         <v>146734059.80000004</v>
@@ -1985,10 +1989,10 @@
     </row>
     <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100">
         <v>12632536.199999999</v>
@@ -1999,10 +2003,10 @@
     </row>
     <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C101">
         <v>1371309.8999999994</v>
@@ -2013,10 +2017,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>45802073.800000012</v>
@@ -2027,10 +2031,10 @@
     </row>
     <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C103">
         <v>43593938.999999993</v>
@@ -2041,13 +2045,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C104">
-        <v>3983608.2</v>
+        <v>37191643.200000003</v>
       </c>
       <c r="D104">
         <v>2021</v>
@@ -2055,13 +2059,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>37191643.200000003</v>
+        <v>3983608.2</v>
       </c>
       <c r="D105">
         <v>2021</v>
@@ -2069,10 +2073,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C106">
         <v>11659676.400000002</v>
@@ -2083,10 +2087,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C107">
         <v>30595106.399999999</v>
@@ -2097,10 +2101,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C108">
         <v>38507282.400000006</v>
@@ -2111,10 +2115,10 @@
     </row>
     <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C109">
         <v>8060842.7000000002</v>
@@ -2125,10 +2129,10 @@
     </row>
     <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C110">
         <v>8973601.2000000011</v>
@@ -2139,10 +2143,10 @@
     </row>
     <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C111">
         <v>30986272.700000003</v>
@@ -2153,10 +2157,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C112">
         <v>40735502.799999997</v>
@@ -2167,10 +2171,10 @@
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>19580251.300000001</v>
@@ -2181,10 +2185,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C114">
         <v>2494184.0999999996</v>
@@ -2195,10 +2199,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C115">
         <v>7457195.5000000019</v>

--- a/excel_files/gdp_for_db.xlsx
+++ b/excel_files/gdp_for_db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Twix\АСР\SDA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Twix\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C2B489-A45A-4AA3-AEFA-2F548F25E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD78DB-F268-45DF-8F01-2B105299BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,11 +714,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
+      <c r="A9" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>16693707.300000006</v>
@@ -728,11 +728,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
+      <c r="A10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>1660884.3000000005</v>
@@ -980,11 +980,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>16</v>
+      <c r="A28" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>19655934</v>
@@ -994,11 +994,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>18</v>
+      <c r="A29" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>1980001.7000000002</v>
@@ -1246,11 +1246,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>16</v>
+      <c r="A47" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C47">
         <v>23611266.200000003</v>
@@ -1260,11 +1260,11 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>18</v>
+      <c r="A48" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>2514431.0000000005</v>
@@ -1512,11 +1512,11 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>16</v>
+      <c r="A66" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C66">
         <v>29243001.600000005</v>
@@ -1526,11 +1526,11 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>18</v>
+      <c r="A67" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C67">
         <v>3194524.4000000004</v>
@@ -1778,11 +1778,11 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>16</v>
+      <c r="A85" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>29757319.900000006</v>
@@ -1792,11 +1792,11 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>18</v>
+      <c r="A86" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C86">
         <v>2881858</v>
@@ -2044,11 +2044,11 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>16</v>
+      <c r="A104" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C104">
         <v>37191643.200000003</v>
@@ -2058,11 +2058,11 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>18</v>
+      <c r="A105" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C105">
         <v>3983608.2</v>
